--- a/Output_Efficient_Frontier/optimal_class_allocation.xlsx
+++ b/Output_Efficient_Frontier/optimal_class_allocation.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5400699819767152</v>
+        <v>0.5400698612003603</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4.326466860379898E-18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.412809256860947E-17</v>
+        <v>2.390213158969267E-17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4599300180232849</v>
+        <v>0.4599301387996401</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Efficient_Frontier/optimal_class_allocation.xlsx
+++ b/Output_Efficient_Frontier/optimal_class_allocation.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5400698612003603</v>
+        <v>0.4450882358828684</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.326466860379898E-18</v>
+        <v>1.96796022395303E-17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.390213158969267E-17</v>
+        <v>2.224166871262383E-17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4599301387996401</v>
+        <v>0.5549117641171317</v>
       </c>
     </row>
   </sheetData>
